--- a/medicine/Enfance/Jean-Louis_Viot/Jean-Louis_Viot.xlsx
+++ b/medicine/Enfance/Jean-Louis_Viot/Jean-Louis_Viot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Viot, né le 27 mai 1952 à Laval, est un écrivain français, auteur de roman policier et de roman pour adolescents.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Viot est policier. Après plusieurs affectations, il termine sa carrière comme commissaire de police à Dieppe. Après avoir quitté la police, il devient détective privé.
 En 1993, il publie Une belle garce grâce auquel il est lauréat du prix du Quai des Orfèvres 1994.
@@ -546,14 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Une belle garce, Éditions Fayard (1993)  (ISBN 2-213-03182-7)
-Chantage en poste restante, Esneval éditions (2015)  (ISBN 978-2-9545082-3-8)
-Romans pour adolescents
-Tout faux Ludo !, Casterman, coll. « Romans Casterman dix &amp; plus : mystère » no 52 (1997)  (ISBN 2-203-11788-5)
-Les Cent Mille Briques, Casterman, coll. « Romans Casterman dix &amp; plus : comme la vie » no 191 (2001)  (ISBN 2-203-11927-6)
-Pinot la lune, Esneval éditions (2015)  (ISBN 978-2-9545082-6-9)
-Pour les beaux yeux de Marion, Esneval éditions (2015)  (ISBN 978-2-9545082-5-2)</t>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une belle garce, Éditions Fayard (1993)  (ISBN 2-213-03182-7)
+Chantage en poste restante, Esneval éditions (2015)  (ISBN 978-2-9545082-3-8)</t>
         </is>
       </c>
     </row>
@@ -578,15 +592,59 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour adolescents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tout faux Ludo !, Casterman, coll. « Romans Casterman dix &amp; plus : mystère » no 52 (1997)  (ISBN 2-203-11788-5)
+Les Cent Mille Briques, Casterman, coll. « Romans Casterman dix &amp; plus : comme la vie » no 191 (2001)  (ISBN 2-203-11927-6)
+Pinot la lune, Esneval éditions (2015)  (ISBN 978-2-9545082-6-9)
+Pour les beaux yeux de Marion, Esneval éditions (2015)  (ISBN 978-2-9545082-5-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Viot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Viot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix du Quai des Orfèvres 1994 pour Une belle garce[1]
-Prix Jeunesse Télévision 2002 pour Les Cent Mille Briques[2],[3]
-Prix Fondcombe 2015 pour Chantage en poste restante[2]</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix du Quai des Orfèvres 1994 pour Une belle garce
+Prix Jeunesse Télévision 2002 pour Les Cent Mille Briques,
+Prix Fondcombe 2015 pour Chantage en poste restante</t>
         </is>
       </c>
     </row>
